--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Ifne-Ifnar2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Ifne-Ifnar2.xlsx
@@ -537,10 +537,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.04056466666666667</v>
+        <v>0.057308</v>
       </c>
       <c r="H2">
-        <v>0.121694</v>
+        <v>0.171924</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>26.533617</v>
+        <v>29.04796866666666</v>
       </c>
       <c r="N2">
-        <v>79.60085100000001</v>
+        <v>87.14390599999999</v>
       </c>
       <c r="O2">
-        <v>0.2094724282508749</v>
+        <v>0.2371972210028098</v>
       </c>
       <c r="P2">
-        <v>0.2094724282508749</v>
+        <v>0.2371972210028099</v>
       </c>
       <c r="Q2">
-        <v>1.076327329066</v>
+        <v>1.664680988349333</v>
       </c>
       <c r="R2">
-        <v>9.686945961594002</v>
+        <v>14.982128895144</v>
       </c>
       <c r="S2">
-        <v>0.2094724282508749</v>
+        <v>0.2371972210028098</v>
       </c>
       <c r="T2">
-        <v>0.2094724282508749</v>
+        <v>0.2371972210028099</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,10 +599,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.04056466666666667</v>
+        <v>0.057308</v>
       </c>
       <c r="H3">
-        <v>0.121694</v>
+        <v>0.171924</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -623,22 +623,22 @@
         <v>95.446252</v>
       </c>
       <c r="O3">
-        <v>0.2511701561316841</v>
+        <v>0.2597953978506987</v>
       </c>
       <c r="P3">
-        <v>0.2511701561316841</v>
+        <v>0.2597953978506987</v>
       </c>
       <c r="Q3">
-        <v>1.290581798987556</v>
+        <v>1.823277936538667</v>
       </c>
       <c r="R3">
-        <v>11.615236190888</v>
+        <v>16.409501428848</v>
       </c>
       <c r="S3">
-        <v>0.2511701561316841</v>
+        <v>0.2597953978506987</v>
       </c>
       <c r="T3">
-        <v>0.2511701561316841</v>
+        <v>0.2597953978506987</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,10 +661,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.04056466666666667</v>
+        <v>0.057308</v>
       </c>
       <c r="H4">
-        <v>0.121694</v>
+        <v>0.171924</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>8.374809000000001</v>
+        <v>12.70280433333333</v>
       </c>
       <c r="N4">
-        <v>25.124427</v>
+        <v>38.108413</v>
       </c>
       <c r="O4">
-        <v>0.06611580989381438</v>
+        <v>0.1037273869778955</v>
       </c>
       <c r="P4">
-        <v>0.06611580989381438</v>
+        <v>0.1037273869778955</v>
       </c>
       <c r="Q4">
-        <v>0.3397213354820001</v>
+        <v>0.7279723107346666</v>
       </c>
       <c r="R4">
-        <v>3.057492019338</v>
+        <v>6.551750796612</v>
       </c>
       <c r="S4">
-        <v>0.06611580989381438</v>
+        <v>0.1037273869778955</v>
       </c>
       <c r="T4">
-        <v>0.06611580989381438</v>
+        <v>0.1037273869778955</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,10 +723,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.04056466666666667</v>
+        <v>0.057308</v>
       </c>
       <c r="H5">
-        <v>0.121694</v>
+        <v>0.171924</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>59.944937</v>
+        <v>48.89716966666666</v>
       </c>
       <c r="N5">
-        <v>179.834811</v>
+        <v>146.691509</v>
       </c>
       <c r="O5">
-        <v>0.4732416057236266</v>
+        <v>0.3992799941685959</v>
       </c>
       <c r="P5">
-        <v>0.4732416057236266</v>
+        <v>0.399279994168596</v>
       </c>
       <c r="Q5">
-        <v>2.431646387759334</v>
+        <v>2.802198999257333</v>
       </c>
       <c r="R5">
-        <v>21.884817489834</v>
+        <v>25.219790993316</v>
       </c>
       <c r="S5">
-        <v>0.4732416057236266</v>
+        <v>0.3992799941685959</v>
       </c>
       <c r="T5">
-        <v>0.4732416057236266</v>
+        <v>0.399279994168596</v>
       </c>
     </row>
   </sheetData>
